--- a/Hwk8DatasetDiet_specialization_in_an_extreme_omnivore_nutritional_regulation_in_glucose-averse_German_cockroaches.xlsx
+++ b/Hwk8DatasetDiet_specialization_in_an_extreme_omnivore_nutritional_regulation_in_glucose-averse_German_cockroaches.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliawilliamson/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliawilliamson/Documents/Comp Bio/FordBio381/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7872BF24-7E99-E746-B1D4-29D9BA38D9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1924E-BC52-C046-A730-4622CBE17502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="1060" windowWidth="24480" windowHeight="15560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,7 +804,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,6 +859,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -874,7 +880,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -885,6 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1228,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,10 +1248,10 @@
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1253,7 +1260,7 @@
       <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1265,7 +1272,7 @@
       <c r="I1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K1" s="1" t="s">
